--- a/exercises/ex5_FTE_plan_data/ex5.1_enhance_model_structure/Account.xlsx
+++ b/exercises/ex5_FTE_plan_data/ex5.1_enhance_model_structure/Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/maximilian_paul_gander_sap_com/Documents/SAC_Planning_PM/TechEd/2025/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{24FE4EB2-486B-C54C-9B8D-14DAA1320E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0209D0C-A255-BC42-AAC0-30D56C71E8A4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{24FE4EB2-486B-C54C-9B8D-14DAA1320E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF4C78B1-1B05-D249-80EB-DCF8C6C26542}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19300" xr2:uid="{E6347C71-7579-374F-9CBE-67C1D3221C57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>&lt;root&gt;</t>
+  </si>
+  <si>
+    <t>ASSUM</t>
+  </si>
+  <si>
+    <t>Salary Assumptions</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57029C11-47F8-9D45-A140-C14277ED499E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,6 +659,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
